--- a/public/template/penerima-berdasarkan-kk.xlsx
+++ b/public/template/penerima-berdasarkan-kk.xlsx
@@ -48,12 +48,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,15 +68,37 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -91,75 +113,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -175,6 +129,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -189,8 +158,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -198,7 +168,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -211,6 +181,51 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -227,187 +242,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -462,15 +477,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -482,6 +488,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -518,17 +533,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -559,182 +563,187 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1059,107 +1068,111 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="7" width="19.5714285714286" customWidth="1"/>
+    <col min="2" max="2" width="26.5714285714286" customWidth="1"/>
+    <col min="3" max="3" width="23.8571428571429" customWidth="1"/>
+    <col min="4" max="4" width="21.1428571428571" customWidth="1"/>
+    <col min="5" max="5" width="20.2857142857143" customWidth="1"/>
+    <col min="6" max="7" width="19.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
     </row>
     <row r="6" ht="36" customHeight="1" spans="1:7">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="5"/>
+      <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="6">
+      <c r="A7" s="4">
         <v>1</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="4">
         <v>2</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="4">
         <v>3</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="4">
         <v>4</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="4">
         <v>5</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="5">
         <v>6</v>
       </c>
-      <c r="G7" s="8"/>
+      <c r="G7" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/public/template/penerima-berdasarkan-kk.xlsx
+++ b/public/template/penerima-berdasarkan-kk.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>DAFTAR PENERIMA BANTUAN LANGSUNG TUNAI (BLT)</t>
   </si>
@@ -39,17 +39,14 @@
   <si>
     <t>TANGGAL PENERIMAAN</t>
   </si>
-  <si>
-    <t>TANDA TANGAN PENERIMA</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -84,7 +81,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -92,13 +89,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -113,7 +103,47 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -127,48 +157,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -181,51 +223,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -242,192 +239,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -439,32 +436,6 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -501,21 +472,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -533,9 +489,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -555,6 +513,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -563,168 +545,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -738,12 +709,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1065,23 +1030,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="2" width="26.5714285714286" customWidth="1"/>
     <col min="3" max="3" width="23.8571428571429" customWidth="1"/>
     <col min="4" max="4" width="21.1428571428571" customWidth="1"/>
     <col min="5" max="5" width="20.2857142857143" customWidth="1"/>
-    <col min="6" max="7" width="19.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1089,10 +1053,8 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1100,10 +1062,8 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1111,28 +1071,22 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:5">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:5">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
     </row>
-    <row r="6" ht="36" customHeight="1" spans="1:7">
+    <row r="6" ht="36" customHeight="1" spans="1:5">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
@@ -1148,12 +1102,8 @@
       <c r="E6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:5">
       <c r="A7" s="4">
         <v>1</v>
       </c>
@@ -1169,18 +1119,12 @@
       <c r="E7" s="4">
         <v>5</v>
       </c>
-      <c r="F7" s="5">
-        <v>6</v>
-      </c>
-      <c r="G7" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
+  <mergeCells count="3">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
